--- a/_data/test/學齡前發展遲緩幼兒服務申請表1.xlsx
+++ b/_data/test/學齡前發展遲緩幼兒服務申請表1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\a1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_project\DbAdm\_data\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750136D1-0B2B-4618-9309-B9A9440DE2D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CBC5B6-C740-4870-961D-FB533DCF953E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10320" tabRatio="489" xr2:uid="{9E68A715-84F3-423E-BEEA-402C46C5850F}"/>
   </bookViews>
@@ -1353,6 +1353,90 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1368,95 +1452,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1778,10 +1778,10 @@
   <dimension ref="A1:L220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E195" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E213" sqref="E213"/>
+      <selection pane="bottomRight" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -1798,26 +1798,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:12" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="16"/>
       <c r="E2" s="3" t="s">
         <v>0</v>
@@ -1842,11 +1842,11 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="139.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="16"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -1865,11 +1865,11 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="13"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
@@ -1880,11 +1880,11 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="12"/>
       <c r="E5" s="4"/>
       <c r="F5" s="9"/>
@@ -1895,11 +1895,11 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="12"/>
       <c r="E6" s="4"/>
       <c r="F6" s="9"/>
@@ -1910,13 +1910,13 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="13"/>
       <c r="E7" s="4"/>
       <c r="F7" s="9"/>
@@ -1927,8 +1927,8 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="76" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="57" t="s">
         <v>119</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1944,8 +1944,8 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="19" t="s">
         <v>120</v>
       </c>
@@ -1959,8 +1959,8 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="76" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="57" t="s">
         <v>115</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -1976,8 +1976,8 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="19" t="s">
         <v>116</v>
       </c>
@@ -1991,8 +1991,8 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="87" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="23" t="s">
@@ -2006,13 +2006,13 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="76" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="23" t="s">
         <v>51</v>
       </c>
@@ -2024,11 +2024,11 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="58"/>
+      <c r="L13" s="76"/>
     </row>
     <row r="14" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="23" t="s">
         <v>52</v>
       </c>
@@ -2040,11 +2040,11 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="58"/>
+      <c r="L14" s="76"/>
     </row>
     <row r="15" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="23" t="s">
         <v>53</v>
       </c>
@@ -2056,11 +2056,11 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="58"/>
+      <c r="L15" s="76"/>
     </row>
     <row r="16" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="23" t="s">
         <v>54</v>
       </c>
@@ -2072,11 +2072,11 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="58"/>
+      <c r="L16" s="76"/>
     </row>
     <row r="17" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="23" t="s">
         <v>55</v>
       </c>
@@ -2088,11 +2088,11 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="58"/>
+      <c r="L17" s="76"/>
     </row>
     <row r="18" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="23" t="s">
         <v>56</v>
       </c>
@@ -2104,11 +2104,11 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="58"/>
+      <c r="L18" s="76"/>
     </row>
     <row r="19" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="23" t="s">
         <v>36</v>
       </c>
@@ -2120,14 +2120,14 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="58"/>
+      <c r="L19" s="76"/>
     </row>
     <row r="20" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="67"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="20"/>
       <c r="E20" s="19"/>
       <c r="F20" s="9"/>
@@ -2136,11 +2136,11 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="58"/>
+      <c r="L20" s="76"/>
     </row>
     <row r="21" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="63" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="53" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -2154,11 +2154,11 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="58"/>
+      <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="25" t="s">
         <v>121</v>
       </c>
@@ -2170,11 +2170,11 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="58"/>
+      <c r="L22" s="76"/>
     </row>
     <row r="23" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="25" t="s">
         <v>122</v>
       </c>
@@ -2186,11 +2186,11 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="58"/>
+      <c r="L23" s="76"/>
     </row>
     <row r="24" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="25" t="s">
         <v>125</v>
       </c>
@@ -2202,11 +2202,11 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="58"/>
+      <c r="L24" s="76"/>
     </row>
     <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="25" t="s">
         <v>124</v>
       </c>
@@ -2218,11 +2218,11 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="58"/>
+      <c r="L25" s="76"/>
     </row>
     <row r="26" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="63"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="25" t="s">
         <v>126</v>
       </c>
@@ -2234,11 +2234,11 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="58"/>
+      <c r="L26" s="76"/>
     </row>
     <row r="27" spans="1:12" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="25" t="s">
         <v>123</v>
       </c>
@@ -2250,11 +2250,11 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="58"/>
+      <c r="L27" s="76"/>
     </row>
     <row r="28" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="25" t="s">
         <v>22</v>
       </c>
@@ -2266,11 +2266,11 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="58"/>
+      <c r="L28" s="76"/>
     </row>
     <row r="29" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="25" t="s">
         <v>23</v>
       </c>
@@ -2282,11 +2282,11 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="58"/>
+      <c r="L29" s="76"/>
     </row>
     <row r="30" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="63"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="25" t="s">
         <v>90</v>
       </c>
@@ -2298,11 +2298,11 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="58"/>
+      <c r="L30" s="76"/>
     </row>
     <row r="31" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-      <c r="B31" s="63"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="25" t="s">
         <v>24</v>
       </c>
@@ -2314,11 +2314,11 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="58"/>
+      <c r="L31" s="76"/>
     </row>
     <row r="32" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="25" t="s">
         <v>127</v>
       </c>
@@ -2330,11 +2330,11 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="58"/>
+      <c r="L32" s="76"/>
     </row>
     <row r="33" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="63"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="25" t="s">
         <v>26</v>
       </c>
@@ -2346,11 +2346,11 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="58"/>
+      <c r="L33" s="76"/>
     </row>
     <row r="34" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
-      <c r="B34" s="63"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="25" t="s">
         <v>27</v>
       </c>
@@ -2362,20 +2362,20 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="58"/>
+      <c r="L34" s="76"/>
     </row>
     <row r="35" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="63"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="L35" s="58"/>
+      <c r="L35" s="76"/>
     </row>
     <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="63" t="s">
+      <c r="A36" s="65"/>
+      <c r="B36" s="53" t="s">
         <v>114</v>
       </c>
       <c r="C36" s="25" t="s">
@@ -2391,8 +2391,8 @@
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="63"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="25" t="s">
         <v>21</v>
       </c>
@@ -2406,8 +2406,8 @@
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="25" t="s">
         <v>22</v>
       </c>
@@ -2421,8 +2421,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="66"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="25" t="s">
         <v>23</v>
       </c>
@@ -2436,8 +2436,8 @@
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="66"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="25" t="s">
         <v>24</v>
       </c>
@@ -2451,8 +2451,8 @@
       <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="25" t="s">
         <v>25</v>
       </c>
@@ -2466,8 +2466,8 @@
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="66"/>
-      <c r="B42" s="63"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="25" t="s">
         <v>26</v>
       </c>
@@ -2481,8 +2481,8 @@
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="66"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="25" t="s">
         <v>27</v>
       </c>
@@ -2496,7 +2496,7 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="66"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="25" t="s">
         <v>204</v>
       </c>
@@ -2511,7 +2511,7 @@
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="25" t="s">
         <v>205</v>
       </c>
@@ -2526,7 +2526,7 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="25" t="s">
         <v>206</v>
       </c>
@@ -2541,7 +2541,7 @@
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="25" t="s">
         <v>207</v>
       </c>
@@ -2556,8 +2556,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
-      <c r="B48" s="60" t="s">
+      <c r="A48" s="65"/>
+      <c r="B48" s="54" t="s">
         <v>208</v>
       </c>
       <c r="C48" s="33" t="s">
@@ -2573,8 +2573,8 @@
       <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
-      <c r="B49" s="78"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="33" t="s">
         <v>92</v>
       </c>
@@ -2588,8 +2588,8 @@
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
-      <c r="B50" s="78"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="33" t="s">
         <v>93</v>
       </c>
@@ -2603,8 +2603,8 @@
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
-      <c r="B51" s="78"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="48" t="s">
         <v>107</v>
       </c>
@@ -2618,8 +2618,8 @@
       <c r="K51" s="40"/>
     </row>
     <row r="52" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="66"/>
-      <c r="B52" s="61"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="48" t="s">
         <v>209</v>
       </c>
@@ -2633,11 +2633,11 @@
       <c r="K52" s="40"/>
     </row>
     <row r="53" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
-      <c r="B53" s="63" t="s">
+      <c r="A53" s="65"/>
+      <c r="B53" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="63"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="13"/>
       <c r="E53" s="4"/>
       <c r="F53" s="9"/>
@@ -2648,8 +2648,8 @@
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="63" t="s">
+      <c r="A54" s="60"/>
+      <c r="B54" s="53" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="25" t="s">
@@ -2665,8 +2665,8 @@
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="25" t="s">
         <v>46</v>
       </c>
@@ -2680,8 +2680,8 @@
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
-      <c r="B56" s="63"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="25" t="s">
         <v>44</v>
       </c>
@@ -2696,13 +2696,13 @@
       <c r="L56" s="26"/>
     </row>
     <row r="57" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="C57" s="82"/>
+      <c r="C57" s="70"/>
       <c r="D57" s="47"/>
       <c r="E57" s="40"/>
       <c r="F57" s="5"/>
@@ -2714,11 +2714,11 @@
       <c r="L57" s="26"/>
     </row>
     <row r="58" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="79"/>
-      <c r="B58" s="81" t="s">
+      <c r="A58" s="67"/>
+      <c r="B58" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="C58" s="82"/>
+      <c r="C58" s="70"/>
       <c r="D58" s="47"/>
       <c r="E58" s="40"/>
       <c r="F58" s="5"/>
@@ -2730,11 +2730,11 @@
       <c r="L58" s="26"/>
     </row>
     <row r="59" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="79"/>
-      <c r="B59" s="81" t="s">
+      <c r="A59" s="67"/>
+      <c r="B59" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="82"/>
+      <c r="C59" s="70"/>
       <c r="D59" s="47"/>
       <c r="E59" s="40"/>
       <c r="F59" s="5"/>
@@ -2746,11 +2746,11 @@
       <c r="L59" s="26"/>
     </row>
     <row r="60" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="80"/>
-      <c r="B60" s="81" t="s">
+      <c r="A60" s="68"/>
+      <c r="B60" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="82"/>
+      <c r="C60" s="70"/>
       <c r="D60" s="47"/>
       <c r="E60" s="40"/>
       <c r="F60" s="5"/>
@@ -2762,13 +2762,13 @@
       <c r="L60" s="26"/>
     </row>
     <row r="61" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="76" t="s">
+      <c r="A61" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="63"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="17"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -2780,11 +2780,11 @@
       <c r="L61" s="26"/>
     </row>
     <row r="62" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="83"/>
-      <c r="B62" s="63" t="s">
+      <c r="A62" s="58"/>
+      <c r="B62" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="63"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="17"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -2796,7 +2796,7 @@
       <c r="L62" s="26"/>
     </row>
     <row r="63" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="83"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="28" t="s">
         <v>82</v>
       </c>
@@ -2814,13 +2814,13 @@
       <c r="L63" s="26"/>
     </row>
     <row r="64" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="66" t="s">
+      <c r="A64" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="66" t="s">
+      <c r="B64" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="67"/>
+      <c r="C64" s="60"/>
       <c r="D64" s="13"/>
       <c r="E64" s="7"/>
       <c r="F64" s="4"/>
@@ -2829,13 +2829,13 @@
       <c r="I64" s="4"/>
       <c r="J64" s="7"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="59" t="s">
+      <c r="L64" s="86" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="66"/>
-      <c r="B65" s="66" t="s">
+      <c r="A65" s="65"/>
+      <c r="B65" s="65" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -2849,11 +2849,11 @@
       <c r="I65" s="4"/>
       <c r="J65" s="7"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="59"/>
+      <c r="L65" s="86"/>
     </row>
     <row r="66" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="66"/>
-      <c r="B66" s="75"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="6" t="s">
         <v>30</v>
       </c>
@@ -2865,11 +2865,11 @@
       <c r="I66" s="4"/>
       <c r="J66" s="7"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="59"/>
+      <c r="L66" s="86"/>
     </row>
     <row r="67" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="66" t="s">
+      <c r="A67" s="80"/>
+      <c r="B67" s="65" t="s">
         <v>102</v>
       </c>
       <c r="C67" s="27" t="s">
@@ -2883,11 +2883,11 @@
       <c r="I67" s="4"/>
       <c r="J67" s="7"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="59"/>
+      <c r="L67" s="86"/>
     </row>
     <row r="68" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
-      <c r="B68" s="66"/>
+      <c r="A68" s="80"/>
+      <c r="B68" s="65"/>
       <c r="C68" s="24" t="s">
         <v>104</v>
       </c>
@@ -2899,11 +2899,11 @@
       <c r="I68" s="4"/>
       <c r="J68" s="14"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="59"/>
+      <c r="L68" s="86"/>
     </row>
     <row r="69" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
-      <c r="B69" s="66"/>
+      <c r="A69" s="80"/>
+      <c r="B69" s="65"/>
       <c r="C69" s="24" t="s">
         <v>105</v>
       </c>
@@ -2915,14 +2915,14 @@
       <c r="I69" s="4"/>
       <c r="J69" s="14"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="59"/>
+      <c r="L69" s="86"/>
     </row>
     <row r="70" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="66"/>
-      <c r="B70" s="77" t="s">
+      <c r="A70" s="65"/>
+      <c r="B70" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C70" s="67"/>
+      <c r="C70" s="60"/>
       <c r="D70" s="13"/>
       <c r="E70" s="7"/>
       <c r="F70" s="4"/>
@@ -2931,14 +2931,14 @@
       <c r="I70" s="4"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
-      <c r="L70" s="59"/>
+      <c r="L70" s="86"/>
     </row>
     <row r="71" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
-      <c r="B71" s="60" t="s">
+      <c r="A71" s="65"/>
+      <c r="B71" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="C71" s="60" t="s">
+      <c r="C71" s="54" t="s">
         <v>135</v>
       </c>
       <c r="D71" s="42" t="s">
@@ -2951,12 +2951,12 @@
       <c r="I71" s="4"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
-      <c r="L71" s="59"/>
+      <c r="L71" s="86"/>
     </row>
     <row r="72" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="66"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="61"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="56"/>
       <c r="D72" s="42" t="s">
         <v>134</v>
       </c>
@@ -2970,8 +2970,8 @@
       <c r="L72" s="41"/>
     </row>
     <row r="73" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="66"/>
-      <c r="B73" s="78"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="55"/>
       <c r="C73" s="42" t="s">
         <v>136</v>
       </c>
@@ -2986,8 +2986,8 @@
       <c r="L73" s="41"/>
     </row>
     <row r="74" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="66"/>
-      <c r="B74" s="78"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="55"/>
       <c r="C74" s="42" t="s">
         <v>137</v>
       </c>
@@ -3002,8 +3002,8 @@
       <c r="L74" s="41"/>
     </row>
     <row r="75" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="66"/>
-      <c r="B75" s="78"/>
+      <c r="A75" s="65"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="42" t="s">
         <v>138</v>
       </c>
@@ -3020,8 +3020,8 @@
       <c r="L75" s="41"/>
     </row>
     <row r="76" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="66"/>
-      <c r="B76" s="78"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="42" t="s">
         <v>196</v>
       </c>
@@ -3036,8 +3036,8 @@
       <c r="L76" s="41"/>
     </row>
     <row r="77" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
-      <c r="B77" s="78"/>
+      <c r="A77" s="65"/>
+      <c r="B77" s="55"/>
       <c r="C77" s="42" t="s">
         <v>198</v>
       </c>
@@ -3054,8 +3054,8 @@
       <c r="L77" s="41"/>
     </row>
     <row r="78" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="66"/>
-      <c r="B78" s="78"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="42" t="s">
         <v>140</v>
       </c>
@@ -3070,8 +3070,8 @@
       <c r="L78" s="41"/>
     </row>
     <row r="79" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="66"/>
-      <c r="B79" s="78"/>
+      <c r="A79" s="65"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="42" t="s">
         <v>31</v>
       </c>
@@ -3085,8 +3085,8 @@
       <c r="K79" s="7"/>
     </row>
     <row r="80" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="66"/>
-      <c r="B80" s="78"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="42" t="s">
         <v>32</v>
       </c>
@@ -3100,8 +3100,8 @@
       <c r="K80" s="50"/>
     </row>
     <row r="81" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="66"/>
-      <c r="B81" s="78"/>
+      <c r="A81" s="65"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="49" t="s">
         <v>199</v>
       </c>
@@ -3115,8 +3115,8 @@
       <c r="K81" s="7"/>
     </row>
     <row r="82" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="66"/>
-      <c r="B82" s="55" t="s">
+      <c r="A82" s="65"/>
+      <c r="B82" s="83" t="s">
         <v>94</v>
       </c>
       <c r="C82" s="22" t="s">
@@ -3135,8 +3135,8 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="66"/>
-      <c r="B83" s="56"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="84"/>
       <c r="C83" s="22" t="s">
         <v>78</v>
       </c>
@@ -3151,8 +3151,8 @@
       <c r="L83" s="38"/>
     </row>
     <row r="84" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="66"/>
-      <c r="B84" s="56"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="84"/>
       <c r="C84" s="22" t="s">
         <v>200</v>
       </c>
@@ -3167,8 +3167,8 @@
       <c r="L84" s="38"/>
     </row>
     <row r="85" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="66"/>
-      <c r="B85" s="56"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="84"/>
       <c r="C85" s="22" t="s">
         <v>68</v>
       </c>
@@ -3183,9 +3183,9 @@
       <c r="L85" s="38"/>
     </row>
     <row r="86" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="66"/>
-      <c r="B86" s="56"/>
-      <c r="C86" s="53" t="s">
+      <c r="A86" s="65"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="81" t="s">
         <v>201</v>
       </c>
       <c r="D86" s="42" t="s">
@@ -3201,9 +3201,9 @@
       <c r="L86" s="38"/>
     </row>
     <row r="87" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="66"/>
-      <c r="B87" s="56"/>
-      <c r="C87" s="54"/>
+      <c r="A87" s="65"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="82"/>
       <c r="D87" s="42" t="s">
         <v>195</v>
       </c>
@@ -3217,8 +3217,8 @@
       <c r="L87" s="38"/>
     </row>
     <row r="88" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="66"/>
-      <c r="B88" s="57"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="85"/>
       <c r="C88" s="45" t="s">
         <v>203</v>
       </c>
@@ -3235,8 +3235,8 @@
       <c r="L88" s="38"/>
     </row>
     <row r="89" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="66"/>
-      <c r="B89" s="85" t="s">
+      <c r="A89" s="65"/>
+      <c r="B89" s="62" t="s">
         <v>162</v>
       </c>
       <c r="C89" s="33" t="s">
@@ -3253,8 +3253,8 @@
       <c r="L89" s="38"/>
     </row>
     <row r="90" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="66"/>
-      <c r="B90" s="86"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="63"/>
       <c r="C90" s="33" t="s">
         <v>164</v>
       </c>
@@ -3269,8 +3269,8 @@
       <c r="L90" s="38"/>
     </row>
     <row r="91" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="66"/>
-      <c r="B91" s="86"/>
+      <c r="A91" s="65"/>
+      <c r="B91" s="63"/>
       <c r="C91" s="33" t="s">
         <v>165</v>
       </c>
@@ -3285,8 +3285,8 @@
       <c r="L91" s="38"/>
     </row>
     <row r="92" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="66"/>
-      <c r="B92" s="87"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="64"/>
       <c r="C92" s="33" t="s">
         <v>166</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="L92" s="38"/>
     </row>
     <row r="93" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="66"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="52" t="s">
         <v>187</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="L93" s="38"/>
     </row>
     <row r="94" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="66"/>
+      <c r="A94" s="65"/>
       <c r="B94" s="52"/>
       <c r="C94" s="33" t="s">
         <v>183</v>
@@ -3335,7 +3335,7 @@
       <c r="L94" s="38"/>
     </row>
     <row r="95" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="66"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="52"/>
       <c r="C95" s="33" t="s">
         <v>184</v>
@@ -3351,7 +3351,7 @@
       <c r="L95" s="38"/>
     </row>
     <row r="96" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="66"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="52"/>
       <c r="C96" s="33" t="s">
         <v>185</v>
@@ -3367,7 +3367,7 @@
       <c r="L96" s="38"/>
     </row>
     <row r="97" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A97" s="66"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="52"/>
       <c r="C97" s="33" t="s">
         <v>186</v>
@@ -3383,7 +3383,7 @@
       <c r="L97" s="38"/>
     </row>
     <row r="98" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A98" s="66"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="28" t="s">
         <v>37</v>
       </c>
@@ -3400,8 +3400,8 @@
       <c r="K98" s="7"/>
     </row>
     <row r="99" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
-      <c r="B99" s="63" t="s">
+      <c r="A99" s="65"/>
+      <c r="B99" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="25" t="s">
@@ -3417,8 +3417,8 @@
       <c r="K99" s="7"/>
     </row>
     <row r="100" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="66"/>
-      <c r="B100" s="63"/>
+      <c r="A100" s="65"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="25" t="s">
         <v>84</v>
       </c>
@@ -3432,8 +3432,8 @@
       <c r="K100" s="7"/>
     </row>
     <row r="101" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="66"/>
-      <c r="B101" s="60" t="s">
+      <c r="A101" s="65"/>
+      <c r="B101" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -3449,8 +3449,8 @@
       <c r="K101" s="4"/>
     </row>
     <row r="102" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="66"/>
-      <c r="B102" s="61"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="56"/>
       <c r="C102" s="28" t="s">
         <v>84</v>
       </c>
@@ -3464,8 +3464,8 @@
       <c r="K102" s="4"/>
     </row>
     <row r="103" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="66"/>
-      <c r="B103" s="63" t="s">
+      <c r="A103" s="65"/>
+      <c r="B103" s="53" t="s">
         <v>188</v>
       </c>
       <c r="C103" s="33" t="s">
@@ -3481,8 +3481,8 @@
       <c r="K103" s="40"/>
     </row>
     <row r="104" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="66"/>
-      <c r="B104" s="63"/>
+      <c r="A104" s="65"/>
+      <c r="B104" s="53"/>
       <c r="C104" s="33" t="s">
         <v>190</v>
       </c>
@@ -3496,8 +3496,8 @@
       <c r="K104" s="40"/>
     </row>
     <row r="105" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="66"/>
-      <c r="B105" s="63"/>
+      <c r="A105" s="65"/>
+      <c r="B105" s="53"/>
       <c r="C105" s="33" t="s">
         <v>191</v>
       </c>
@@ -3511,8 +3511,8 @@
       <c r="K105" s="40"/>
     </row>
     <row r="106" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A106" s="66"/>
-      <c r="B106" s="63"/>
+      <c r="A106" s="65"/>
+      <c r="B106" s="53"/>
       <c r="C106" s="33" t="s">
         <v>192</v>
       </c>
@@ -3526,8 +3526,8 @@
       <c r="K106" s="40"/>
     </row>
     <row r="107" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="66"/>
-      <c r="B107" s="63"/>
+      <c r="A107" s="65"/>
+      <c r="B107" s="53"/>
       <c r="C107" s="33" t="s">
         <v>193</v>
       </c>
@@ -3541,8 +3541,8 @@
       <c r="K107" s="40"/>
     </row>
     <row r="108" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A108" s="66"/>
-      <c r="B108" s="63"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="53"/>
       <c r="C108" s="33" t="s">
         <v>36</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="K108" s="40"/>
     </row>
     <row r="109" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="66"/>
+      <c r="A109" s="65"/>
       <c r="B109" s="52" t="s">
         <v>167</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="K109" s="40"/>
     </row>
     <row r="110" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A110" s="66"/>
+      <c r="A110" s="65"/>
       <c r="B110" s="52"/>
       <c r="C110" s="33" t="s">
         <v>169</v>
@@ -3588,7 +3588,7 @@
       <c r="K110" s="40"/>
     </row>
     <row r="111" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A111" s="66"/>
+      <c r="A111" s="65"/>
       <c r="B111" s="52"/>
       <c r="C111" s="33" t="s">
         <v>170</v>
@@ -3603,7 +3603,7 @@
       <c r="K111" s="40"/>
     </row>
     <row r="112" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="66"/>
+      <c r="A112" s="65"/>
       <c r="B112" s="52"/>
       <c r="C112" s="33" t="s">
         <v>171</v>
@@ -3618,7 +3618,7 @@
       <c r="K112" s="40"/>
     </row>
     <row r="113" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="66"/>
+      <c r="A113" s="65"/>
       <c r="B113" s="52"/>
       <c r="C113" s="33" t="s">
         <v>172</v>
@@ -3633,7 +3633,7 @@
       <c r="K113" s="40"/>
     </row>
     <row r="114" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="66"/>
+      <c r="A114" s="65"/>
       <c r="B114" s="52"/>
       <c r="C114" s="33" t="s">
         <v>197</v>
@@ -3648,7 +3648,7 @@
       <c r="K114" s="40"/>
     </row>
     <row r="115" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A115" s="66"/>
+      <c r="A115" s="65"/>
       <c r="B115" s="52"/>
       <c r="C115" s="33" t="s">
         <v>173</v>
@@ -3663,7 +3663,7 @@
       <c r="K115" s="40"/>
     </row>
     <row r="116" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="66"/>
+      <c r="A116" s="65"/>
       <c r="B116" s="52"/>
       <c r="C116" s="33" t="s">
         <v>174</v>
@@ -3678,7 +3678,7 @@
       <c r="K116" s="40"/>
     </row>
     <row r="117" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="66"/>
+      <c r="A117" s="65"/>
       <c r="B117" s="52"/>
       <c r="C117" s="33" t="s">
         <v>175</v>
@@ -3693,7 +3693,7 @@
       <c r="K117" s="40"/>
     </row>
     <row r="118" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="66"/>
+      <c r="A118" s="65"/>
       <c r="B118" s="52"/>
       <c r="C118" s="33" t="s">
         <v>176</v>
@@ -3708,7 +3708,7 @@
       <c r="K118" s="40"/>
     </row>
     <row r="119" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="66"/>
+      <c r="A119" s="65"/>
       <c r="B119" s="52"/>
       <c r="C119" s="33" t="s">
         <v>177</v>
@@ -3723,7 +3723,7 @@
       <c r="K119" s="40"/>
     </row>
     <row r="120" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="66"/>
+      <c r="A120" s="65"/>
       <c r="B120" s="52"/>
       <c r="C120" s="33" t="s">
         <v>36</v>
@@ -3738,8 +3738,8 @@
       <c r="K120" s="40"/>
     </row>
     <row r="121" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="66"/>
-      <c r="B121" s="60" t="s">
+      <c r="A121" s="65"/>
+      <c r="B121" s="54" t="s">
         <v>141</v>
       </c>
       <c r="C121" s="29" t="s">
@@ -3755,9 +3755,9 @@
       <c r="K121" s="4"/>
     </row>
     <row r="122" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="66"/>
-      <c r="B122" s="78"/>
-      <c r="C122" s="60" t="s">
+      <c r="A122" s="65"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="54" t="s">
         <v>143</v>
       </c>
       <c r="D122" s="29" t="s">
@@ -3772,9 +3772,9 @@
       <c r="K122" s="4"/>
     </row>
     <row r="123" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="66"/>
-      <c r="B123" s="78"/>
-      <c r="C123" s="78"/>
+      <c r="A123" s="65"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="55"/>
       <c r="D123" s="29" t="s">
         <v>150</v>
       </c>
@@ -3787,9 +3787,9 @@
       <c r="K123" s="4"/>
     </row>
     <row r="124" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A124" s="66"/>
-      <c r="B124" s="78"/>
-      <c r="C124" s="61"/>
+      <c r="A124" s="65"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="56"/>
       <c r="D124" s="29" t="s">
         <v>151</v>
       </c>
@@ -3802,9 +3802,9 @@
       <c r="K124" s="4"/>
     </row>
     <row r="125" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="66"/>
-      <c r="B125" s="78"/>
-      <c r="C125" s="60" t="s">
+      <c r="A125" s="65"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="54" t="s">
         <v>145</v>
       </c>
       <c r="D125" s="29" t="s">
@@ -3819,9 +3819,9 @@
       <c r="K125" s="4"/>
     </row>
     <row r="126" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="66"/>
-      <c r="B126" s="78"/>
-      <c r="C126" s="78"/>
+      <c r="A126" s="65"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="55"/>
       <c r="D126" s="29" t="s">
         <v>147</v>
       </c>
@@ -3834,9 +3834,9 @@
       <c r="K126" s="4"/>
     </row>
     <row r="127" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="66"/>
-      <c r="B127" s="78"/>
-      <c r="C127" s="78"/>
+      <c r="A127" s="65"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="55"/>
       <c r="D127" s="29" t="s">
         <v>148</v>
       </c>
@@ -3849,9 +3849,9 @@
       <c r="K127" s="4"/>
     </row>
     <row r="128" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="66"/>
-      <c r="B128" s="78"/>
-      <c r="C128" s="61"/>
+      <c r="A128" s="65"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="56"/>
       <c r="D128" s="29" t="s">
         <v>146</v>
       </c>
@@ -3864,9 +3864,9 @@
       <c r="K128" s="4"/>
     </row>
     <row r="129" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="66"/>
-      <c r="B129" s="78"/>
-      <c r="C129" s="60" t="s">
+      <c r="A129" s="65"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="54" t="s">
         <v>149</v>
       </c>
       <c r="D129" s="29" t="s">
@@ -3881,9 +3881,9 @@
       <c r="K129" s="4"/>
     </row>
     <row r="130" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="66"/>
-      <c r="B130" s="78"/>
-      <c r="C130" s="78"/>
+      <c r="A130" s="65"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="55"/>
       <c r="D130" s="29" t="s">
         <v>154</v>
       </c>
@@ -3896,9 +3896,9 @@
       <c r="K130" s="4"/>
     </row>
     <row r="131" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A131" s="66"/>
-      <c r="B131" s="78"/>
-      <c r="C131" s="78"/>
+      <c r="A131" s="65"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="55"/>
       <c r="D131" s="29" t="s">
         <v>156</v>
       </c>
@@ -3911,9 +3911,9 @@
       <c r="K131" s="4"/>
     </row>
     <row r="132" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A132" s="66"/>
-      <c r="B132" s="78"/>
-      <c r="C132" s="61"/>
+      <c r="A132" s="65"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="56"/>
       <c r="D132" s="29" t="s">
         <v>157</v>
       </c>
@@ -3926,9 +3926,9 @@
       <c r="K132" s="4"/>
     </row>
     <row r="133" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A133" s="66"/>
-      <c r="B133" s="78"/>
-      <c r="C133" s="60" t="s">
+      <c r="A133" s="65"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="54" t="s">
         <v>155</v>
       </c>
       <c r="D133" s="29" t="s">
@@ -3943,9 +3943,9 @@
       <c r="K133" s="4"/>
     </row>
     <row r="134" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A134" s="66"/>
-      <c r="B134" s="78"/>
-      <c r="C134" s="61"/>
+      <c r="A134" s="65"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="56"/>
       <c r="D134" s="29" t="s">
         <v>159</v>
       </c>
@@ -3958,11 +3958,11 @@
       <c r="K134" s="4"/>
     </row>
     <row r="135" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="66"/>
-      <c r="B135" s="84" t="s">
+      <c r="A135" s="65"/>
+      <c r="B135" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C135" s="68" t="s">
+      <c r="C135" s="77" t="s">
         <v>97</v>
       </c>
       <c r="D135" s="28" t="s">
@@ -3975,12 +3975,12 @@
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
-      <c r="L135" s="58"/>
+      <c r="L135" s="76"/>
     </row>
     <row r="136" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A136" s="66"/>
-      <c r="B136" s="84"/>
-      <c r="C136" s="69"/>
+      <c r="A136" s="65"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="78"/>
       <c r="D136" s="28" t="s">
         <v>98</v>
       </c>
@@ -3991,12 +3991,12 @@
       <c r="I136" s="14"/>
       <c r="J136" s="14"/>
       <c r="K136" s="14"/>
-      <c r="L136" s="58"/>
+      <c r="L136" s="76"/>
     </row>
     <row r="137" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A137" s="66"/>
-      <c r="B137" s="84"/>
-      <c r="C137" s="69"/>
+      <c r="A137" s="65"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="78"/>
       <c r="D137" s="28" t="s">
         <v>99</v>
       </c>
@@ -4007,12 +4007,12 @@
       <c r="I137" s="14"/>
       <c r="J137" s="14"/>
       <c r="K137" s="14"/>
-      <c r="L137" s="58"/>
+      <c r="L137" s="76"/>
     </row>
     <row r="138" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A138" s="66"/>
-      <c r="B138" s="84"/>
-      <c r="C138" s="70"/>
+      <c r="A138" s="65"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="79"/>
       <c r="D138" s="28" t="s">
         <v>101</v>
       </c>
@@ -4023,11 +4023,11 @@
       <c r="I138" s="14"/>
       <c r="J138" s="14"/>
       <c r="K138" s="14"/>
-      <c r="L138" s="58"/>
+      <c r="L138" s="76"/>
     </row>
     <row r="139" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A139" s="66"/>
-      <c r="B139" s="84"/>
+      <c r="A139" s="65"/>
+      <c r="B139" s="61"/>
       <c r="C139" s="28" t="s">
         <v>14</v>
       </c>
@@ -4039,11 +4039,11 @@
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
       <c r="K139" s="14"/>
-      <c r="L139" s="58"/>
+      <c r="L139" s="76"/>
     </row>
     <row r="140" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A140" s="66"/>
-      <c r="B140" s="84"/>
+      <c r="A140" s="65"/>
+      <c r="B140" s="61"/>
       <c r="C140" s="28" t="s">
         <v>102</v>
       </c>
@@ -4055,11 +4055,11 @@
       <c r="I140" s="14"/>
       <c r="J140" s="14"/>
       <c r="K140" s="14"/>
-      <c r="L140" s="58"/>
+      <c r="L140" s="76"/>
     </row>
     <row r="141" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A141" s="66"/>
-      <c r="B141" s="84"/>
+      <c r="A141" s="65"/>
+      <c r="B141" s="61"/>
       <c r="C141" s="28" t="s">
         <v>106</v>
       </c>
@@ -4071,11 +4071,11 @@
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
-      <c r="L141" s="58"/>
+      <c r="L141" s="76"/>
     </row>
     <row r="142" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="66"/>
-      <c r="B142" s="84"/>
+      <c r="A142" s="65"/>
+      <c r="B142" s="61"/>
       <c r="C142" s="28" t="s">
         <v>34</v>
       </c>
@@ -4087,11 +4087,11 @@
       <c r="I142" s="14"/>
       <c r="J142" s="14"/>
       <c r="K142" s="14"/>
-      <c r="L142" s="58"/>
+      <c r="L142" s="76"/>
     </row>
     <row r="143" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A143" s="66"/>
-      <c r="B143" s="84"/>
+      <c r="A143" s="65"/>
+      <c r="B143" s="61"/>
       <c r="C143" s="28" t="s">
         <v>35</v>
       </c>
@@ -4103,11 +4103,11 @@
       <c r="I143" s="14"/>
       <c r="J143" s="14"/>
       <c r="K143" s="14"/>
-      <c r="L143" s="58"/>
+      <c r="L143" s="76"/>
     </row>
     <row r="144" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A144" s="66"/>
-      <c r="B144" s="84"/>
+      <c r="A144" s="65"/>
+      <c r="B144" s="61"/>
       <c r="C144" s="28" t="s">
         <v>107</v>
       </c>
@@ -4119,11 +4119,11 @@
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
-      <c r="L144" s="58"/>
+      <c r="L144" s="76"/>
     </row>
     <row r="145" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A145" s="66"/>
-      <c r="B145" s="84"/>
+      <c r="A145" s="65"/>
+      <c r="B145" s="61"/>
       <c r="C145" s="28" t="s">
         <v>108</v>
       </c>
@@ -4135,11 +4135,11 @@
       <c r="I145" s="14"/>
       <c r="J145" s="14"/>
       <c r="K145" s="14"/>
-      <c r="L145" s="58"/>
+      <c r="L145" s="76"/>
     </row>
     <row r="146" spans="1:12" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="66"/>
-      <c r="B146" s="84"/>
+      <c r="A146" s="65"/>
+      <c r="B146" s="61"/>
       <c r="C146" s="25" t="s">
         <v>47</v>
       </c>
@@ -4151,11 +4151,11 @@
       <c r="I146" s="14"/>
       <c r="J146" s="14"/>
       <c r="K146" s="14"/>
-      <c r="L146" s="58"/>
+      <c r="L146" s="76"/>
     </row>
     <row r="147" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="66"/>
-      <c r="B147" s="84"/>
+      <c r="A147" s="65"/>
+      <c r="B147" s="61"/>
       <c r="C147" s="25" t="s">
         <v>113</v>
       </c>
@@ -4167,12 +4167,12 @@
       <c r="I147" s="14"/>
       <c r="J147" s="14"/>
       <c r="K147" s="14"/>
-      <c r="L147" s="58"/>
+      <c r="L147" s="76"/>
     </row>
     <row r="148" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A148" s="66"/>
-      <c r="B148" s="84"/>
-      <c r="C148" s="68" t="s">
+      <c r="A148" s="65"/>
+      <c r="B148" s="61"/>
+      <c r="C148" s="77" t="s">
         <v>109</v>
       </c>
       <c r="D148" s="28" t="s">
@@ -4185,12 +4185,12 @@
       <c r="I148" s="14"/>
       <c r="J148" s="14"/>
       <c r="K148" s="14"/>
-      <c r="L148" s="58"/>
+      <c r="L148" s="76"/>
     </row>
     <row r="149" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A149" s="66"/>
-      <c r="B149" s="84"/>
-      <c r="C149" s="69"/>
+      <c r="A149" s="65"/>
+      <c r="B149" s="61"/>
+      <c r="C149" s="78"/>
       <c r="D149" s="28" t="s">
         <v>111</v>
       </c>
@@ -4201,12 +4201,12 @@
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
       <c r="K149" s="14"/>
-      <c r="L149" s="58"/>
+      <c r="L149" s="76"/>
     </row>
     <row r="150" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A150" s="66"/>
-      <c r="B150" s="84"/>
-      <c r="C150" s="70"/>
+      <c r="A150" s="65"/>
+      <c r="B150" s="61"/>
+      <c r="C150" s="79"/>
       <c r="D150" s="28" t="s">
         <v>112</v>
       </c>
@@ -4217,14 +4217,14 @@
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
-      <c r="L150" s="58"/>
+      <c r="L150" s="76"/>
     </row>
     <row r="151" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A151" s="66"/>
-      <c r="B151" s="68" t="s">
+      <c r="A151" s="65"/>
+      <c r="B151" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C151" s="68" t="s">
+      <c r="C151" s="77" t="s">
         <v>97</v>
       </c>
       <c r="D151" s="28" t="s">
@@ -4237,12 +4237,12 @@
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
-      <c r="L151" s="58"/>
+      <c r="L151" s="76"/>
     </row>
     <row r="152" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A152" s="66"/>
-      <c r="B152" s="69"/>
-      <c r="C152" s="69"/>
+      <c r="A152" s="65"/>
+      <c r="B152" s="78"/>
+      <c r="C152" s="78"/>
       <c r="D152" s="28" t="s">
         <v>98</v>
       </c>
@@ -4253,12 +4253,12 @@
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
-      <c r="L152" s="58"/>
+      <c r="L152" s="76"/>
     </row>
     <row r="153" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A153" s="66"/>
-      <c r="B153" s="69"/>
-      <c r="C153" s="69"/>
+      <c r="A153" s="65"/>
+      <c r="B153" s="78"/>
+      <c r="C153" s="78"/>
       <c r="D153" s="28" t="s">
         <v>99</v>
       </c>
@@ -4269,12 +4269,12 @@
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
-      <c r="L153" s="58"/>
+      <c r="L153" s="76"/>
     </row>
     <row r="154" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A154" s="66"/>
-      <c r="B154" s="69"/>
-      <c r="C154" s="70"/>
+      <c r="A154" s="65"/>
+      <c r="B154" s="78"/>
+      <c r="C154" s="79"/>
       <c r="D154" s="28" t="s">
         <v>101</v>
       </c>
@@ -4285,11 +4285,11 @@
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
-      <c r="L154" s="58"/>
+      <c r="L154" s="76"/>
     </row>
     <row r="155" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A155" s="66"/>
-      <c r="B155" s="69"/>
+      <c r="A155" s="65"/>
+      <c r="B155" s="78"/>
       <c r="C155" s="28" t="s">
         <v>10</v>
       </c>
@@ -4301,11 +4301,11 @@
       <c r="I155" s="14"/>
       <c r="J155" s="14"/>
       <c r="K155" s="14"/>
-      <c r="L155" s="58"/>
+      <c r="L155" s="76"/>
     </row>
     <row r="156" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="66"/>
-      <c r="B156" s="69"/>
+      <c r="A156" s="65"/>
+      <c r="B156" s="78"/>
       <c r="C156" s="28" t="s">
         <v>102</v>
       </c>
@@ -4317,11 +4317,11 @@
       <c r="I156" s="14"/>
       <c r="J156" s="14"/>
       <c r="K156" s="14"/>
-      <c r="L156" s="58"/>
+      <c r="L156" s="76"/>
     </row>
     <row r="157" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A157" s="66"/>
-      <c r="B157" s="69"/>
+      <c r="A157" s="65"/>
+      <c r="B157" s="78"/>
       <c r="C157" s="28" t="s">
         <v>106</v>
       </c>
@@ -4333,11 +4333,11 @@
       <c r="I157" s="14"/>
       <c r="J157" s="14"/>
       <c r="K157" s="14"/>
-      <c r="L157" s="58"/>
+      <c r="L157" s="76"/>
     </row>
     <row r="158" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A158" s="66"/>
-      <c r="B158" s="69"/>
+      <c r="A158" s="65"/>
+      <c r="B158" s="78"/>
       <c r="C158" s="28" t="s">
         <v>34</v>
       </c>
@@ -4349,11 +4349,11 @@
       <c r="I158" s="14"/>
       <c r="J158" s="14"/>
       <c r="K158" s="14"/>
-      <c r="L158" s="58"/>
+      <c r="L158" s="76"/>
     </row>
     <row r="159" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A159" s="66"/>
-      <c r="B159" s="69"/>
+      <c r="A159" s="65"/>
+      <c r="B159" s="78"/>
       <c r="C159" s="28" t="s">
         <v>35</v>
       </c>
@@ -4365,11 +4365,11 @@
       <c r="I159" s="14"/>
       <c r="J159" s="14"/>
       <c r="K159" s="14"/>
-      <c r="L159" s="58"/>
+      <c r="L159" s="76"/>
     </row>
     <row r="160" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A160" s="66"/>
-      <c r="B160" s="69"/>
+      <c r="A160" s="65"/>
+      <c r="B160" s="78"/>
       <c r="C160" s="28" t="s">
         <v>107</v>
       </c>
@@ -4381,11 +4381,11 @@
       <c r="I160" s="14"/>
       <c r="J160" s="14"/>
       <c r="K160" s="14"/>
-      <c r="L160" s="58"/>
+      <c r="L160" s="76"/>
     </row>
     <row r="161" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="66"/>
-      <c r="B161" s="69"/>
+      <c r="A161" s="65"/>
+      <c r="B161" s="78"/>
       <c r="C161" s="28" t="s">
         <v>108</v>
       </c>
@@ -4397,11 +4397,11 @@
       <c r="I161" s="14"/>
       <c r="J161" s="14"/>
       <c r="K161" s="14"/>
-      <c r="L161" s="58"/>
+      <c r="L161" s="76"/>
     </row>
     <row r="162" spans="1:12" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="66"/>
-      <c r="B162" s="69"/>
+      <c r="A162" s="65"/>
+      <c r="B162" s="78"/>
       <c r="C162" s="25" t="s">
         <v>47</v>
       </c>
@@ -4413,11 +4413,11 @@
       <c r="I162" s="14"/>
       <c r="J162" s="14"/>
       <c r="K162" s="14"/>
-      <c r="L162" s="58"/>
+      <c r="L162" s="76"/>
     </row>
     <row r="163" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A163" s="66"/>
-      <c r="B163" s="69"/>
+      <c r="A163" s="65"/>
+      <c r="B163" s="78"/>
       <c r="C163" s="25" t="s">
         <v>113</v>
       </c>
@@ -4429,12 +4429,12 @@
       <c r="I163" s="14"/>
       <c r="J163" s="14"/>
       <c r="K163" s="14"/>
-      <c r="L163" s="58"/>
+      <c r="L163" s="76"/>
     </row>
     <row r="164" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A164" s="66"/>
-      <c r="B164" s="69"/>
-      <c r="C164" s="68" t="s">
+      <c r="A164" s="65"/>
+      <c r="B164" s="78"/>
+      <c r="C164" s="77" t="s">
         <v>109</v>
       </c>
       <c r="D164" s="28" t="s">
@@ -4447,12 +4447,12 @@
       <c r="I164" s="14"/>
       <c r="J164" s="14"/>
       <c r="K164" s="14"/>
-      <c r="L164" s="58"/>
+      <c r="L164" s="76"/>
     </row>
     <row r="165" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A165" s="66"/>
-      <c r="B165" s="69"/>
-      <c r="C165" s="69"/>
+      <c r="A165" s="65"/>
+      <c r="B165" s="78"/>
+      <c r="C165" s="78"/>
       <c r="D165" s="28" t="s">
         <v>111</v>
       </c>
@@ -4463,12 +4463,12 @@
       <c r="I165" s="14"/>
       <c r="J165" s="14"/>
       <c r="K165" s="14"/>
-      <c r="L165" s="58"/>
+      <c r="L165" s="76"/>
     </row>
     <row r="166" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A166" s="66"/>
-      <c r="B166" s="70"/>
-      <c r="C166" s="70"/>
+      <c r="A166" s="65"/>
+      <c r="B166" s="79"/>
+      <c r="C166" s="79"/>
       <c r="D166" s="28" t="s">
         <v>112</v>
       </c>
@@ -4479,11 +4479,11 @@
       <c r="I166" s="14"/>
       <c r="J166" s="14"/>
       <c r="K166" s="14"/>
-      <c r="L166" s="58"/>
+      <c r="L166" s="76"/>
     </row>
     <row r="167" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="66"/>
-      <c r="B167" s="68" t="s">
+      <c r="A167" s="65"/>
+      <c r="B167" s="77" t="s">
         <v>96</v>
       </c>
       <c r="C167" s="28" t="s">
@@ -4497,12 +4497,12 @@
       <c r="I167" s="14"/>
       <c r="J167" s="14"/>
       <c r="K167" s="14"/>
-      <c r="L167" s="58"/>
+      <c r="L167" s="76"/>
     </row>
     <row r="168" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A168" s="66"/>
-      <c r="B168" s="69"/>
-      <c r="C168" s="68" t="s">
+      <c r="A168" s="65"/>
+      <c r="B168" s="78"/>
+      <c r="C168" s="77" t="s">
         <v>97</v>
       </c>
       <c r="D168" s="28" t="s">
@@ -4515,12 +4515,12 @@
       <c r="I168" s="14"/>
       <c r="J168" s="14"/>
       <c r="K168" s="14"/>
-      <c r="L168" s="58"/>
+      <c r="L168" s="76"/>
     </row>
     <row r="169" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A169" s="66"/>
-      <c r="B169" s="69"/>
-      <c r="C169" s="69"/>
+      <c r="A169" s="65"/>
+      <c r="B169" s="78"/>
+      <c r="C169" s="78"/>
       <c r="D169" s="28" t="s">
         <v>98</v>
       </c>
@@ -4531,12 +4531,12 @@
       <c r="I169" s="14"/>
       <c r="J169" s="14"/>
       <c r="K169" s="14"/>
-      <c r="L169" s="58"/>
+      <c r="L169" s="76"/>
     </row>
     <row r="170" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="66"/>
-      <c r="B170" s="69"/>
-      <c r="C170" s="69"/>
+      <c r="A170" s="65"/>
+      <c r="B170" s="78"/>
+      <c r="C170" s="78"/>
       <c r="D170" s="28" t="s">
         <v>99</v>
       </c>
@@ -4547,12 +4547,12 @@
       <c r="I170" s="14"/>
       <c r="J170" s="14"/>
       <c r="K170" s="14"/>
-      <c r="L170" s="58"/>
+      <c r="L170" s="76"/>
     </row>
     <row r="171" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A171" s="66"/>
-      <c r="B171" s="69"/>
-      <c r="C171" s="70"/>
+      <c r="A171" s="65"/>
+      <c r="B171" s="78"/>
+      <c r="C171" s="79"/>
       <c r="D171" s="28" t="s">
         <v>101</v>
       </c>
@@ -4563,11 +4563,11 @@
       <c r="I171" s="14"/>
       <c r="J171" s="14"/>
       <c r="K171" s="14"/>
-      <c r="L171" s="58"/>
+      <c r="L171" s="76"/>
     </row>
     <row r="172" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="66"/>
-      <c r="B172" s="69"/>
+      <c r="A172" s="65"/>
+      <c r="B172" s="78"/>
       <c r="C172" s="28" t="s">
         <v>10</v>
       </c>
@@ -4579,11 +4579,11 @@
       <c r="I172" s="14"/>
       <c r="J172" s="14"/>
       <c r="K172" s="14"/>
-      <c r="L172" s="58"/>
+      <c r="L172" s="76"/>
     </row>
     <row r="173" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A173" s="66"/>
-      <c r="B173" s="69"/>
+      <c r="A173" s="65"/>
+      <c r="B173" s="78"/>
       <c r="C173" s="28" t="s">
         <v>102</v>
       </c>
@@ -4595,11 +4595,11 @@
       <c r="I173" s="14"/>
       <c r="J173" s="14"/>
       <c r="K173" s="14"/>
-      <c r="L173" s="58"/>
+      <c r="L173" s="76"/>
     </row>
     <row r="174" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A174" s="66"/>
-      <c r="B174" s="69"/>
+      <c r="A174" s="65"/>
+      <c r="B174" s="78"/>
       <c r="C174" s="28" t="s">
         <v>106</v>
       </c>
@@ -4611,11 +4611,11 @@
       <c r="I174" s="14"/>
       <c r="J174" s="14"/>
       <c r="K174" s="14"/>
-      <c r="L174" s="58"/>
+      <c r="L174" s="76"/>
     </row>
     <row r="175" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A175" s="66"/>
-      <c r="B175" s="69"/>
+      <c r="A175" s="65"/>
+      <c r="B175" s="78"/>
       <c r="C175" s="28" t="s">
         <v>34</v>
       </c>
@@ -4627,11 +4627,11 @@
       <c r="I175" s="14"/>
       <c r="J175" s="14"/>
       <c r="K175" s="14"/>
-      <c r="L175" s="58"/>
+      <c r="L175" s="76"/>
     </row>
     <row r="176" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A176" s="66"/>
-      <c r="B176" s="69"/>
+      <c r="A176" s="65"/>
+      <c r="B176" s="78"/>
       <c r="C176" s="28" t="s">
         <v>35</v>
       </c>
@@ -4643,11 +4643,11 @@
       <c r="I176" s="14"/>
       <c r="J176" s="14"/>
       <c r="K176" s="14"/>
-      <c r="L176" s="58"/>
+      <c r="L176" s="76"/>
     </row>
     <row r="177" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A177" s="66"/>
-      <c r="B177" s="69"/>
+      <c r="A177" s="65"/>
+      <c r="B177" s="78"/>
       <c r="C177" s="28" t="s">
         <v>107</v>
       </c>
@@ -4659,11 +4659,11 @@
       <c r="I177" s="14"/>
       <c r="J177" s="14"/>
       <c r="K177" s="14"/>
-      <c r="L177" s="58"/>
+      <c r="L177" s="76"/>
     </row>
     <row r="178" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A178" s="66"/>
-      <c r="B178" s="69"/>
+      <c r="A178" s="65"/>
+      <c r="B178" s="78"/>
       <c r="C178" s="28" t="s">
         <v>108</v>
       </c>
@@ -4675,11 +4675,11 @@
       <c r="I178" s="14"/>
       <c r="J178" s="14"/>
       <c r="K178" s="14"/>
-      <c r="L178" s="58"/>
+      <c r="L178" s="76"/>
     </row>
     <row r="179" spans="1:12" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="66"/>
-      <c r="B179" s="69"/>
+      <c r="A179" s="65"/>
+      <c r="B179" s="78"/>
       <c r="C179" s="25" t="s">
         <v>47</v>
       </c>
@@ -4691,11 +4691,11 @@
       <c r="I179" s="14"/>
       <c r="J179" s="14"/>
       <c r="K179" s="14"/>
-      <c r="L179" s="58"/>
+      <c r="L179" s="76"/>
     </row>
     <row r="180" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A180" s="66"/>
-      <c r="B180" s="69"/>
+      <c r="A180" s="65"/>
+      <c r="B180" s="78"/>
       <c r="C180" s="25" t="s">
         <v>113</v>
       </c>
@@ -4707,12 +4707,12 @@
       <c r="I180" s="14"/>
       <c r="J180" s="14"/>
       <c r="K180" s="14"/>
-      <c r="L180" s="58"/>
+      <c r="L180" s="76"/>
     </row>
     <row r="181" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A181" s="66"/>
-      <c r="B181" s="69"/>
-      <c r="C181" s="68" t="s">
+      <c r="A181" s="65"/>
+      <c r="B181" s="78"/>
+      <c r="C181" s="77" t="s">
         <v>109</v>
       </c>
       <c r="D181" s="28" t="s">
@@ -4725,12 +4725,12 @@
       <c r="I181" s="14"/>
       <c r="J181" s="14"/>
       <c r="K181" s="14"/>
-      <c r="L181" s="58"/>
+      <c r="L181" s="76"/>
     </row>
     <row r="182" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A182" s="66"/>
-      <c r="B182" s="69"/>
-      <c r="C182" s="69"/>
+      <c r="A182" s="65"/>
+      <c r="B182" s="78"/>
+      <c r="C182" s="78"/>
       <c r="D182" s="28" t="s">
         <v>111</v>
       </c>
@@ -4741,12 +4741,12 @@
       <c r="I182" s="14"/>
       <c r="J182" s="14"/>
       <c r="K182" s="14"/>
-      <c r="L182" s="58"/>
+      <c r="L182" s="76"/>
     </row>
     <row r="183" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A183" s="66"/>
-      <c r="B183" s="70"/>
-      <c r="C183" s="70"/>
+      <c r="A183" s="65"/>
+      <c r="B183" s="79"/>
+      <c r="C183" s="79"/>
       <c r="D183" s="28" t="s">
         <v>112</v>
       </c>
@@ -4757,14 +4757,14 @@
       <c r="I183" s="14"/>
       <c r="J183" s="14"/>
       <c r="K183" s="14"/>
-      <c r="L183" s="58"/>
+      <c r="L183" s="76"/>
     </row>
     <row r="184" spans="1:12" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="66"/>
-      <c r="B184" s="63" t="s">
+      <c r="A184" s="65"/>
+      <c r="B184" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C184" s="63"/>
+      <c r="C184" s="53"/>
       <c r="D184" s="25" t="s">
         <v>130</v>
       </c>
@@ -4780,13 +4780,13 @@
       </c>
     </row>
     <row r="185" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A185" s="64" t="s">
+      <c r="A185" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="B185" s="66" t="s">
+      <c r="B185" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C185" s="67"/>
+      <c r="C185" s="60"/>
       <c r="D185" s="13"/>
       <c r="E185" s="7"/>
       <c r="F185" s="5"/>
@@ -4797,7 +4797,7 @@
       <c r="K185" s="7"/>
     </row>
     <row r="186" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A186" s="64"/>
+      <c r="A186" s="74"/>
       <c r="B186" s="46" t="s">
         <v>179</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="K186" s="39"/>
     </row>
     <row r="187" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="64"/>
+      <c r="A187" s="74"/>
       <c r="B187" s="46" t="s">
         <v>180</v>
       </c>
@@ -4827,7 +4827,7 @@
       <c r="K187" s="39"/>
     </row>
     <row r="188" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A188" s="64"/>
+      <c r="A188" s="74"/>
       <c r="B188" s="46" t="s">
         <v>181</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="K188" s="39"/>
     </row>
     <row r="189" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A189" s="64"/>
+      <c r="A189" s="74"/>
       <c r="B189" s="30" t="s">
         <v>178</v>
       </c>
@@ -4859,8 +4859,8 @@
       <c r="K189" s="32"/>
     </row>
     <row r="190" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A190" s="65"/>
-      <c r="B190" s="66" t="s">
+      <c r="A190" s="75"/>
+      <c r="B190" s="65" t="s">
         <v>69</v>
       </c>
       <c r="C190" s="6" t="s">
@@ -4876,8 +4876,8 @@
       <c r="K190" s="7"/>
     </row>
     <row r="191" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A191" s="65"/>
-      <c r="B191" s="67"/>
+      <c r="A191" s="75"/>
+      <c r="B191" s="60"/>
       <c r="C191" s="8" t="s">
         <v>61</v>
       </c>
@@ -4891,8 +4891,8 @@
       <c r="K191" s="7"/>
     </row>
     <row r="192" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A192" s="65"/>
-      <c r="B192" s="67"/>
+      <c r="A192" s="75"/>
+      <c r="B192" s="60"/>
       <c r="C192" s="8" t="s">
         <v>62</v>
       </c>
@@ -4906,8 +4906,8 @@
       <c r="K192" s="7"/>
     </row>
     <row r="193" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A193" s="65"/>
-      <c r="B193" s="67"/>
+      <c r="A193" s="75"/>
+      <c r="B193" s="60"/>
       <c r="C193" s="8" t="s">
         <v>63</v>
       </c>
@@ -4921,8 +4921,8 @@
       <c r="K193" s="7"/>
     </row>
     <row r="194" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A194" s="65"/>
-      <c r="B194" s="67"/>
+      <c r="A194" s="75"/>
+      <c r="B194" s="60"/>
       <c r="C194" s="8" t="s">
         <v>64</v>
       </c>
@@ -4936,8 +4936,8 @@
       <c r="K194" s="7"/>
     </row>
     <row r="195" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A195" s="65"/>
-      <c r="B195" s="67"/>
+      <c r="A195" s="75"/>
+      <c r="B195" s="60"/>
       <c r="C195" s="8" t="s">
         <v>65</v>
       </c>
@@ -4951,8 +4951,8 @@
       <c r="K195" s="7"/>
     </row>
     <row r="196" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A196" s="65"/>
-      <c r="B196" s="67"/>
+      <c r="A196" s="75"/>
+      <c r="B196" s="60"/>
       <c r="C196" s="8" t="s">
         <v>66</v>
       </c>
@@ -4966,8 +4966,8 @@
       <c r="K196" s="7"/>
     </row>
     <row r="197" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A197" s="65"/>
-      <c r="B197" s="67"/>
+      <c r="A197" s="75"/>
+      <c r="B197" s="60"/>
       <c r="C197" s="8" t="s">
         <v>67</v>
       </c>
@@ -4981,8 +4981,8 @@
       <c r="K197" s="7"/>
     </row>
     <row r="198" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A198" s="65"/>
-      <c r="B198" s="67"/>
+      <c r="A198" s="75"/>
+      <c r="B198" s="60"/>
       <c r="C198" s="25" t="s">
         <v>132</v>
       </c>
@@ -4996,7 +4996,7 @@
       <c r="K198" s="7"/>
     </row>
     <row r="199" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A199" s="64" t="s">
+      <c r="A199" s="74" t="s">
         <v>70</v>
       </c>
       <c r="B199" s="6" t="s">
@@ -5013,7 +5013,7 @@
       <c r="K199" s="7"/>
     </row>
     <row r="200" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A200" s="65"/>
+      <c r="A200" s="75"/>
       <c r="B200" s="8" t="s">
         <v>72</v>
       </c>
@@ -5030,7 +5030,7 @@
       <c r="K200" s="7"/>
     </row>
     <row r="201" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A201" s="65"/>
+      <c r="A201" s="75"/>
       <c r="B201" s="8" t="s">
         <v>73</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="K201" s="7"/>
     </row>
     <row r="202" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="65"/>
+      <c r="A202" s="75"/>
       <c r="B202" s="21" t="s">
         <v>74</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="K202" s="7"/>
     </row>
     <row r="203" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A203" s="65"/>
+      <c r="A203" s="75"/>
       <c r="B203" s="8" t="s">
         <v>75</v>
       </c>
@@ -5081,7 +5081,7 @@
       <c r="K203" s="7"/>
     </row>
     <row r="204" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A204" s="65"/>
+      <c r="A204" s="75"/>
       <c r="B204" s="8" t="s">
         <v>76</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="K204" s="7"/>
     </row>
     <row r="205" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A205" s="65"/>
+      <c r="A205" s="75"/>
       <c r="B205" s="8" t="s">
         <v>68</v>
       </c>
@@ -5115,10 +5115,10 @@
       <c r="K205" s="7"/>
     </row>
     <row r="206" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="63" t="s">
+      <c r="A206" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="B206" s="63" t="s">
+      <c r="B206" s="53" t="s">
         <v>212</v>
       </c>
       <c r="C206" s="52" t="s">
@@ -5134,9 +5134,9 @@
       <c r="K206" s="35"/>
     </row>
     <row r="207" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="63"/>
-      <c r="B207" s="63"/>
-      <c r="C207" s="63" t="s">
+      <c r="A207" s="53"/>
+      <c r="B207" s="53"/>
+      <c r="C207" s="53" t="s">
         <v>230</v>
       </c>
       <c r="D207" s="49" t="s">
@@ -5151,9 +5151,9 @@
       <c r="K207" s="35"/>
     </row>
     <row r="208" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="63"/>
-      <c r="B208" s="63"/>
-      <c r="C208" s="63"/>
+      <c r="A208" s="53"/>
+      <c r="B208" s="53"/>
+      <c r="C208" s="53"/>
       <c r="D208" s="49" t="s">
         <v>228</v>
       </c>
@@ -5166,9 +5166,9 @@
       <c r="K208" s="35"/>
     </row>
     <row r="209" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="63"/>
-      <c r="B209" s="63"/>
-      <c r="C209" s="63"/>
+      <c r="A209" s="53"/>
+      <c r="B209" s="53"/>
+      <c r="C209" s="53"/>
       <c r="D209" s="49" t="s">
         <v>229</v>
       </c>
@@ -5181,14 +5181,14 @@
       <c r="K209" s="35"/>
     </row>
     <row r="210" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A210" s="63"/>
+      <c r="A210" s="53"/>
       <c r="B210" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="C210" s="63" t="s">
+      <c r="C210" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="D210" s="63"/>
+      <c r="D210" s="53"/>
       <c r="E210" s="35"/>
       <c r="F210" s="35"/>
       <c r="G210" s="35"/>
@@ -5198,12 +5198,12 @@
       <c r="K210" s="35"/>
     </row>
     <row r="211" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A211" s="63"/>
+      <c r="A211" s="53"/>
       <c r="B211" s="52"/>
-      <c r="C211" s="63" t="s">
+      <c r="C211" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="D211" s="63"/>
+      <c r="D211" s="53"/>
       <c r="E211" s="35"/>
       <c r="F211" s="35"/>
       <c r="G211" s="35"/>
@@ -5213,12 +5213,12 @@
       <c r="K211" s="35"/>
     </row>
     <row r="212" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A212" s="63"/>
+      <c r="A212" s="53"/>
       <c r="B212" s="52"/>
-      <c r="C212" s="63" t="s">
+      <c r="C212" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="D212" s="63"/>
+      <c r="D212" s="53"/>
       <c r="E212" s="35"/>
       <c r="F212" s="35"/>
       <c r="G212" s="35"/>
@@ -5228,12 +5228,12 @@
       <c r="K212" s="35"/>
     </row>
     <row r="213" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="63"/>
+      <c r="A213" s="53"/>
       <c r="B213" s="52"/>
-      <c r="C213" s="63" t="s">
+      <c r="C213" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="D213" s="63"/>
+      <c r="D213" s="53"/>
       <c r="E213" s="35"/>
       <c r="F213" s="35"/>
       <c r="G213" s="35"/>
@@ -5243,12 +5243,12 @@
       <c r="K213" s="35"/>
     </row>
     <row r="214" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A214" s="63"/>
+      <c r="A214" s="53"/>
       <c r="B214" s="52"/>
-      <c r="C214" s="63" t="s">
+      <c r="C214" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="D214" s="63"/>
+      <c r="D214" s="53"/>
       <c r="E214" s="35"/>
       <c r="F214" s="35"/>
       <c r="G214" s="35"/>
@@ -5258,7 +5258,7 @@
       <c r="K214" s="35"/>
     </row>
     <row r="215" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A215" s="63"/>
+      <c r="A215" s="53"/>
       <c r="B215" s="52"/>
       <c r="C215" s="52" t="s">
         <v>219</v>
@@ -5273,7 +5273,7 @@
       <c r="K215" s="35"/>
     </row>
     <row r="216" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A216" s="63"/>
+      <c r="A216" s="53"/>
       <c r="B216" s="52" t="s">
         <v>220</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="K216" s="35"/>
     </row>
     <row r="217" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A217" s="63"/>
+      <c r="A217" s="53"/>
       <c r="B217" s="52" t="s">
         <v>221</v>
       </c>
@@ -5303,7 +5303,7 @@
       <c r="K217" s="35"/>
     </row>
     <row r="218" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A218" s="63"/>
+      <c r="A218" s="53"/>
       <c r="B218" s="52" t="s">
         <v>222</v>
       </c>
@@ -5318,7 +5318,7 @@
       <c r="K218" s="35"/>
     </row>
     <row r="219" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A219" s="63"/>
+      <c r="A219" s="53"/>
       <c r="B219" s="52" t="s">
         <v>223</v>
       </c>
@@ -5333,7 +5333,7 @@
       <c r="K219" s="35"/>
     </row>
     <row r="220" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A220" s="63"/>
+      <c r="A220" s="53"/>
       <c r="B220" s="52" t="s">
         <v>224</v>
       </c>
@@ -5349,6 +5349,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B82:B88"/>
+    <mergeCell ref="L12:L35"/>
+    <mergeCell ref="L64:L71"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B21:B35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="A185:A198"/>
+    <mergeCell ref="A199:A205"/>
+    <mergeCell ref="B190:B198"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="L135:L183"/>
+    <mergeCell ref="C135:C138"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="B167:B183"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="B151:B166"/>
+    <mergeCell ref="C168:C171"/>
+    <mergeCell ref="A64:A184"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:A56"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B135:B150"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="B121:B134"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B109:B120"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B71:B81"/>
+    <mergeCell ref="B99:B100"/>
     <mergeCell ref="B220:D220"/>
     <mergeCell ref="C207:C209"/>
     <mergeCell ref="B206:B209"/>
@@ -5365,68 +5427,6 @@
     <mergeCell ref="B217:D217"/>
     <mergeCell ref="B218:D218"/>
     <mergeCell ref="B219:D219"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B135:B150"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="B121:B134"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B109:B120"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B71:B81"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="A7:A56"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A185:A198"/>
-    <mergeCell ref="A199:A205"/>
-    <mergeCell ref="B190:B198"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="L135:L183"/>
-    <mergeCell ref="C135:C138"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="B167:B183"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="B151:B166"/>
-    <mergeCell ref="C168:C171"/>
-    <mergeCell ref="A64:A184"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="B82:B88"/>
-    <mergeCell ref="L12:L35"/>
-    <mergeCell ref="L64:L71"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B21:B35"/>
-    <mergeCell ref="B36:B43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
